--- a/docs/templates/harmonized_dossier - template.xlsx
+++ b/docs/templates/harmonized_dossier - template.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>study_1</t>
+          <t>TOKYO</t>
         </is>
       </c>
     </row>
